--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H2">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I2">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J2">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.764494666666667</v>
+        <v>2.582049666666667</v>
       </c>
       <c r="N2">
-        <v>5.293483999999999</v>
+        <v>7.746149</v>
       </c>
       <c r="O2">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835153</v>
       </c>
       <c r="P2">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835152</v>
       </c>
       <c r="Q2">
-        <v>18.31434124386533</v>
+        <v>2.892330271693889</v>
       </c>
       <c r="R2">
-        <v>164.829071194788</v>
+        <v>26.030972445245</v>
       </c>
       <c r="S2">
-        <v>0.0002463456854798847</v>
+        <v>3.919616666806203E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002463456854798847</v>
+        <v>3.919616666806202E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H3">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I3">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J3">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>93.97803499999999</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N3">
         <v>281.934105</v>
       </c>
       <c r="O3">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540504</v>
       </c>
       <c r="P3">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540503</v>
       </c>
       <c r="Q3">
-        <v>975.4327031599149</v>
+        <v>105.2712188358917</v>
       </c>
       <c r="R3">
-        <v>8778.894328439235</v>
+        <v>947.4409695230252</v>
       </c>
       <c r="S3">
-        <v>0.01312051766972051</v>
+        <v>0.001426610328434284</v>
       </c>
       <c r="T3">
-        <v>0.01312051766972051</v>
+        <v>0.001426610328434284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H4">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I4">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J4">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>19.913116</v>
       </c>
       <c r="N4">
-        <v>59.73934800000001</v>
+        <v>59.73934799999999</v>
       </c>
       <c r="O4">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="P4">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="Q4">
-        <v>206.685578903804</v>
+        <v>22.30604196119333</v>
       </c>
       <c r="R4">
-        <v>1860.170210134236</v>
+        <v>200.75437765074</v>
       </c>
       <c r="S4">
-        <v>0.002780121869298441</v>
+        <v>0.0003022861348070322</v>
       </c>
       <c r="T4">
-        <v>0.00278012186929844</v>
+        <v>0.0003022861348070322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.764494666666667</v>
+        <v>2.582049666666667</v>
       </c>
       <c r="N5">
-        <v>5.293483999999999</v>
+        <v>7.746149</v>
       </c>
       <c r="O5">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835153</v>
       </c>
       <c r="P5">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835152</v>
       </c>
       <c r="Q5">
-        <v>1065.809847368884</v>
+        <v>1559.638582715397</v>
       </c>
       <c r="R5">
-        <v>9592.288626319951</v>
+        <v>14036.74724443857</v>
       </c>
       <c r="S5">
-        <v>0.01433617807734398</v>
+        <v>0.02113584829102209</v>
       </c>
       <c r="T5">
-        <v>0.01433617807734398</v>
+        <v>0.02113584829102209</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.97803499999999</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N6">
         <v>281.934105</v>
       </c>
       <c r="O6">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540504</v>
       </c>
       <c r="P6">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540503</v>
       </c>
       <c r="Q6">
-        <v>56765.66613182032</v>
+        <v>56765.66613182034</v>
       </c>
       <c r="R6">
         <v>510890.995186383</v>
       </c>
       <c r="S6">
-        <v>0.7635533677548845</v>
+        <v>0.7692747029969467</v>
       </c>
       <c r="T6">
-        <v>0.7635533677548845</v>
+        <v>0.7692747029969466</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>19.913116</v>
       </c>
       <c r="N7">
-        <v>59.73934800000001</v>
+        <v>59.73934799999999</v>
       </c>
       <c r="O7">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="P7">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="Q7">
         <v>12028.14353907495</v>
       </c>
       <c r="R7">
-        <v>108253.2918516746</v>
+        <v>108253.2918516745</v>
       </c>
       <c r="S7">
-        <v>0.1617902181535683</v>
+        <v>0.1630025185847282</v>
       </c>
       <c r="T7">
-        <v>0.1617902181535683</v>
+        <v>0.1630025185847282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.764494666666667</v>
+        <v>2.582049666666667</v>
       </c>
       <c r="N8">
-        <v>5.293483999999999</v>
+        <v>7.746149</v>
       </c>
       <c r="O8">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835153</v>
       </c>
       <c r="P8">
-        <v>0.01525645078971891</v>
+        <v>0.02216861605835152</v>
       </c>
       <c r="Q8">
-        <v>50.10247904271554</v>
+        <v>73.31679248189889</v>
       </c>
       <c r="R8">
-        <v>450.9223113844399</v>
+        <v>659.85113233709</v>
       </c>
       <c r="S8">
-        <v>0.0006739270268950371</v>
+        <v>0.0009935716006613678</v>
       </c>
       <c r="T8">
-        <v>0.0006739270268950371</v>
+        <v>0.0009935716006613678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>93.97803499999999</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N9">
         <v>281.934105</v>
       </c>
       <c r="O9">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540504</v>
       </c>
       <c r="P9">
-        <v>0.8125676395500474</v>
+        <v>0.8068640207540503</v>
       </c>
       <c r="Q9">
-        <v>2668.487821478116</v>
+        <v>2668.487821478117</v>
       </c>
       <c r="R9">
         <v>24016.39039330305</v>
       </c>
       <c r="S9">
-        <v>0.03589375412544238</v>
+        <v>0.03616270742866942</v>
       </c>
       <c r="T9">
-        <v>0.03589375412544238</v>
+        <v>0.03616270742866941</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>19.913116</v>
       </c>
       <c r="N10">
-        <v>59.73934800000001</v>
+        <v>59.73934799999999</v>
       </c>
       <c r="O10">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="P10">
-        <v>0.1721759096602337</v>
+        <v>0.1709673631875981</v>
       </c>
       <c r="Q10">
-        <v>565.4290125738534</v>
+        <v>565.4290125738532</v>
       </c>
       <c r="R10">
         <v>5088.861113164679</v>
       </c>
       <c r="S10">
-        <v>0.007605569637366996</v>
+        <v>0.007662558468062837</v>
       </c>
       <c r="T10">
-        <v>0.007605569637366996</v>
+        <v>0.007662558468062837</v>
       </c>
     </row>
   </sheetData>
